--- a/honeymoon.xlsx
+++ b/honeymoon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Sun</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>Cradle</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Citi</t>
+  </si>
+  <si>
+    <t>15-days</t>
+  </si>
+  <si>
+    <t>Insur/Px</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Bluecross</t>
   </si>
 </sst>
 </file>
@@ -389,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,6 +564,50 @@
       </c>
       <c r="D14" s="1">
         <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>264.10000000000002</v>
+      </c>
+      <c r="C20">
+        <f>345*0.65</f>
+        <v>224.25</v>
+      </c>
+      <c r="D20">
+        <f>335*0.65</f>
+        <v>217.75</v>
       </c>
     </row>
   </sheetData>

--- a/honeymoon.xlsx
+++ b/honeymoon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>Sun</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Bluecross</t>
+  </si>
+  <si>
+    <t>No breakfast</t>
+  </si>
+  <si>
+    <t>need order</t>
+  </si>
+  <si>
+    <t>Hotel Windsor</t>
+  </si>
+  <si>
+    <t>Cradle Mountain Highlanders Cottages</t>
   </si>
 </sst>
 </file>
@@ -407,15 +419,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>16</v>
       </c>
@@ -431,32 +448,65 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>20</v>
       </c>
@@ -472,8 +522,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>21</v>
       </c>
@@ -483,8 +536,14 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>22</v>
       </c>
@@ -494,8 +553,14 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>23</v>
       </c>
@@ -503,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>24</v>
       </c>
@@ -511,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>25</v>
       </c>
@@ -528,31 +593,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>29</v>
       </c>
@@ -565,8 +639,11 @@
       <c r="D14" s="1">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>30</v>
       </c>

--- a/honeymoon.xlsx
+++ b/honeymoon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>Sun</t>
   </si>
@@ -72,20 +72,68 @@
     <t>No breakfast</t>
   </si>
   <si>
-    <t>need order</t>
-  </si>
-  <si>
     <t>Hotel Windsor</t>
   </si>
   <si>
     <t>Cradle Mountain Highlanders Cottages</t>
+  </si>
+  <si>
+    <t>QT Sydney</t>
+  </si>
+  <si>
+    <t>HOBART INTL</t>
+  </si>
+  <si>
+    <t>KINGSFORD SMITH INTL</t>
+  </si>
+  <si>
+    <t>TULLAMARINE, MELBOURNE</t>
+  </si>
+  <si>
+    <t>Devonport</t>
+  </si>
+  <si>
+    <t>Hyundai i20</t>
+  </si>
+  <si>
+    <t>4days</t>
+  </si>
+  <si>
+    <t>Swansea Cottages &amp; Motel Suites</t>
+  </si>
+  <si>
+    <t>Coles Bay</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Fountainside Hotel</t>
+  </si>
+  <si>
+    <t>Melshel Oysters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,14 +160,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -430,9 +481,11 @@
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>16</v>
       </c>
@@ -449,13 +502,19 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1">
+        <v>3355.41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>17</v>
       </c>
@@ -466,13 +525,13 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>18</v>
       </c>
@@ -483,13 +542,13 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>19</v>
       </c>
@@ -500,50 +559,53 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.875</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.27083333333333331</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="1">
+        <v>0.27083333333333331</v>
+      </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>2738.94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>22</v>
       </c>
@@ -554,29 +616,50 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>976.22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>761.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>25</v>
       </c>
@@ -592,8 +675,23 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>4952.88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>26</v>
       </c>
@@ -603,8 +701,14 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>27</v>
       </c>
@@ -614,8 +718,14 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>28</v>
       </c>
@@ -625,25 +735,34 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>0.93055555555555547</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.20833333333333334</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>30</v>
       </c>
@@ -657,7 +776,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="16" spans="1:10">
+      <c r="H16" s="2">
+        <f>SUM(H1:H15)</f>
+        <v>12785.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -670,8 +800,14 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -685,6 +821,62 @@
       <c r="D20">
         <f>335*0.65</f>
         <v>217.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24">
+        <f>5249.8</f>
+        <v>5249.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25">
+        <f>5228.73</f>
+        <v>5228.7299999999996</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26">
+        <f>5809.7*0.85</f>
+        <v>4938.2449999999999</v>
+      </c>
+      <c r="C26">
+        <f>2021.96</f>
+        <v>2021.96</v>
+      </c>
+      <c r="D26">
+        <f>2930.92</f>
+        <v>2930.92</v>
+      </c>
+      <c r="E26">
+        <f>C26+D26</f>
+        <v>4952.88</v>
+      </c>
+      <c r="G26">
+        <v>4952.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="E27">
+        <f>B25-E26</f>
+        <v>275.84999999999945</v>
+      </c>
+      <c r="G27">
+        <v>976.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="G28">
+        <v>761.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="G29">
+        <f>SUM(G26:G28)</f>
+        <v>6691.08</v>
       </c>
     </row>
   </sheetData>

--- a/honeymoon.xlsx
+++ b/honeymoon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Sun</t>
   </si>
@@ -87,9 +87,6 @@
     <t>KINGSFORD SMITH INTL</t>
   </si>
   <si>
-    <t>TULLAMARINE, MELBOURNE</t>
-  </si>
-  <si>
     <t>Devonport</t>
   </si>
   <si>
@@ -114,18 +111,41 @@
     <t>Fountainside Hotel</t>
   </si>
   <si>
-    <t>Melshel Oysters</t>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>https://www.skybus.com.au/hobart-express/timetable</t>
+  </si>
+  <si>
+    <t>On Ferry</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>Richmond Bridge, Oysters: Barilla bay and Mures</t>
+  </si>
+  <si>
+    <t>40m: TULLAMARINE, MELBOURNE</t>
+  </si>
+  <si>
+    <t>24m: Station Pier, Port Melbourne VIC 3207</t>
+  </si>
+  <si>
+    <t>Freycinet National Park, Wineglass Bay, Melshel Oysters</t>
+  </si>
+  <si>
+    <t>1 Day Great Ocean Road &amp; 12 Apostles Tour: https://greatoceanroadmelbournetours.com.au</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +157,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
@@ -160,17 +189,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,22 +502,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1">
         <v>16</v>
       </c>
@@ -498,74 +530,81 @@
       <c r="D1" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2">
         <v>3355.41</v>
       </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>20</v>
       </c>
@@ -578,8 +617,23 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3998</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>21</v>
       </c>
@@ -590,22 +644,25 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2">
         <v>2738.94</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>22</v>
       </c>
@@ -613,13 +670,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>23</v>
       </c>
@@ -627,19 +687,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="H8">
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2">
         <v>976.22</v>
       </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>24</v>
       </c>
@@ -647,19 +710,25 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2">
         <v>761.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>25</v>
       </c>
@@ -672,77 +741,80 @@
       <c r="D10">
         <v>1430</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2">
         <v>4952.88</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>29</v>
       </c>
@@ -752,17 +824,18 @@
       <c r="D14" s="1">
         <v>0.93055555555555547</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>30</v>
       </c>
@@ -772,22 +845,22 @@
       <c r="C15" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="H16" s="2">
-        <f>SUM(H1:H15)</f>
-        <v>12785.43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    <row r="16" spans="1:12">
+      <c r="I16" s="2">
+        <f>SUM(I1:I15)</f>
+        <v>16783.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -800,14 +873,14 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
         <v>4318</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -823,13 +896,13 @@
         <v>217.75</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="B24">
         <f>5249.8</f>
         <v>5249.8</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="B25">
         <f>5228.73</f>
         <v>5228.7299999999996</v>
@@ -838,7 +911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="B26">
         <f>5809.7*0.85</f>
         <v>4938.2449999999999</v>
@@ -851,35 +924,38 @@
         <f>2930.92</f>
         <v>2930.92</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f>C26+D26</f>
         <v>4952.88</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4952.88</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="E27">
-        <f>B25-E26</f>
+    <row r="27" spans="1:8">
+      <c r="F27">
+        <f>B25-F26</f>
         <v>275.84999999999945</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>976.22</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="G28">
+    <row r="28" spans="1:8">
+      <c r="H28">
         <v>761.98</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="G29">
-        <f>SUM(G26:G28)</f>
+    <row r="29" spans="1:8">
+      <c r="H29">
+        <f>SUM(H26:H28)</f>
         <v>6691.08</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/honeymoon.xlsx
+++ b/honeymoon.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/honeymoon.xlsx
+++ b/honeymoon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Sun</t>
   </si>
@@ -54,24 +54,6 @@
     <t>HK</t>
   </si>
   <si>
-    <t>Citi</t>
-  </si>
-  <si>
-    <t>15-days</t>
-  </si>
-  <si>
-    <t>Insur/Px</t>
-  </si>
-  <si>
-    <t>Zurich</t>
-  </si>
-  <si>
-    <t>Bluecross</t>
-  </si>
-  <si>
-    <t>No breakfast</t>
-  </si>
-  <si>
     <t>Hotel Windsor</t>
   </si>
   <si>
@@ -87,15 +69,6 @@
     <t>KINGSFORD SMITH INTL</t>
   </si>
   <si>
-    <t>Devonport</t>
-  </si>
-  <si>
-    <t>Hyundai i20</t>
-  </si>
-  <si>
-    <t>4days</t>
-  </si>
-  <si>
     <t>Swansea Cottages &amp; Motel Suites</t>
   </si>
   <si>
@@ -123,19 +96,34 @@
     <t>Cycling</t>
   </si>
   <si>
-    <t>Richmond Bridge, Oysters: Barilla bay and Mures</t>
-  </si>
-  <si>
     <t>40m: TULLAMARINE, MELBOURNE</t>
   </si>
   <si>
     <t>24m: Station Pier, Port Melbourne VIC 3207</t>
   </si>
   <si>
-    <t>Freycinet National Park, Wineglass Bay, Melshel Oysters</t>
-  </si>
-  <si>
-    <t>1 Day Great Ocean Road &amp; 12 Apostles Tour: https://greatoceanroadmelbournetours.com.au</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Local Tour</t>
+  </si>
+  <si>
+    <t>Plane</t>
+  </si>
+  <si>
+    <t>Devonport, Dinner: Hellyers Restaurant</t>
+  </si>
+  <si>
+    <t>Freycinet National Park, Wineglass Bay; Lunch: Melshel Oysters (10am - 4pm) * Bring Wine</t>
+  </si>
+  <si>
+    <t>Richmond Bridge, Oysters: Barilla bay, Dinner: Mures Upper Deck</t>
+  </si>
+  <si>
+    <t>Dinner: Tavern Bar &amp; Bistro</t>
+  </si>
+  <si>
+    <t>Friend's Chinese resturant</t>
   </si>
 </sst>
 </file>
@@ -505,14 +493,17 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -535,16 +526,16 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2">
         <v>3355.41</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -558,10 +549,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -575,13 +569,13 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -595,13 +589,13 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -621,16 +615,16 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2">
         <v>3998</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -644,22 +638,22 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2">
         <v>2738.94</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -670,13 +664,19 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
       </c>
       <c r="I8" s="2">
         <v>976.22</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -710,22 +710,22 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2">
         <v>761.98</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -745,22 +745,22 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2">
         <v>4952.88</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -774,10 +774,10 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -791,10 +791,10 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -808,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -829,10 +829,13 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -855,63 +858,22 @@
         <v>16783.43</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19">
-        <v>4318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>264.10000000000002</v>
-      </c>
-      <c r="C20">
-        <f>345*0.65</f>
-        <v>224.25</v>
-      </c>
-      <c r="D20">
-        <f>335*0.65</f>
-        <v>217.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="2:7">
       <c r="B24">
         <f>5249.8</f>
         <v>5249.8</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="2:7">
       <c r="B25">
         <f>5228.73</f>
         <v>5228.7299999999996</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26">
         <f>5809.7*0.85</f>
         <v>4938.2449999999999</v>
@@ -928,27 +890,27 @@
         <f>C26+D26</f>
         <v>4952.88</v>
       </c>
-      <c r="H26">
+      <c r="G26">
         <v>4952.88</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="2:7">
       <c r="F27">
         <f>B25-F26</f>
         <v>275.84999999999945</v>
       </c>
-      <c r="H27">
+      <c r="G27">
         <v>976.22</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="H28">
+    <row r="28" spans="2:7">
+      <c r="G28">
         <v>761.98</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="H29">
-        <f>SUM(H26:H28)</f>
+    <row r="29" spans="2:7">
+      <c r="G29">
+        <f>SUM(G26:G28)</f>
         <v>6691.08</v>
       </c>
     </row>
